--- a/data_excel/111.xlsx
+++ b/data_excel/111.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>安安</t>
   </si>
@@ -134,373 +139,49 @@
   </si>
   <si>
     <t>。</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -509,309 +190,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1096,21 +507,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1235,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1301,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1320,18 +731,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1353,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1362,8 +773,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data_excel/111.xlsx
+++ b/data_excel/111.xlsx
@@ -132,9 +132,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +171,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,9 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -516,7 +525,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,16 +744,16 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -766,7 +775,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
